--- a/Berlin/BezirkAnalysis/CO2Emission_AlleBezirke/Mappe1.xlsx
+++ b/Berlin/BezirkAnalysis/CO2Emission_AlleBezirke/Mappe1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D3122D9-1CCA-174F-AC4D-9556F5C23A5A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="10" xr2:uid="{8B76D68B-AA84-934C-8CB1-0516677C04CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Gebäude" sheetId="1" r:id="rId1"/>
@@ -130,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -189,20 +188,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -221,9 +220,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -235,6 +234,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -260,7 +260,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -312,7 +312,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -360,7 +360,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -408,7 +408,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -456,7 +456,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -504,7 +504,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -552,7 +552,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -602,7 +602,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -652,7 +652,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -702,7 +702,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -752,7 +752,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -802,7 +802,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -852,7 +852,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-D8A6-3846-BA75-60069D751A47}"/>
             </c:ext>
@@ -866,12 +866,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120523999"/>
-        <c:axId val="1670273951"/>
+        <c:axId val="167414784"/>
+        <c:axId val="167420672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120523999"/>
+        <c:axId val="167414784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,10 +912,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1670273951"/>
+        <c:crossAx val="167420672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -922,7 +923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1670273951"/>
+        <c:axId val="167420672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,10 +971,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120523999"/>
+        <c:crossAx val="167414784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -987,6 +988,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1012,20 +1014,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1049,7 +1051,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1636,7 +1638,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B42E7E-5455-DF4F-8528-EF38D2FDDAD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B42E7E-5455-DF4F-8528-EF38D2FDDAD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,30 +1948,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F87913-2B4C-FF45-A9D7-3D51956BCCC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView zoomScale="233" zoomScaleNormal="267" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1980,231 +1982,231 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -2223,23 +2225,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704D650-351F-E341-AD81-EF418467B4C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -2250,231 +2252,231 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -2490,16 +2492,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C151FD69-361A-254F-B52A-CEB0DFA3835E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2510,8 +2512,8 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2">
@@ -2521,8 +2523,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
@@ -2532,8 +2534,8 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4">
@@ -2543,8 +2545,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5">
@@ -2554,8 +2556,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -2565,8 +2567,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7">
@@ -2576,8 +2578,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8">
@@ -2587,8 +2589,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9">
@@ -2598,8 +2600,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C10">
@@ -2609,8 +2611,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11">
@@ -2620,8 +2622,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C12">
@@ -2631,8 +2633,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C13">
@@ -2642,8 +2644,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -2662,23 +2664,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFA18D2-3ED7-834B-9B2F-698F69639903}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -2689,231 +2691,231 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -2929,23 +2931,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE4B029-35AD-8847-95EC-0C7D85D5CE5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -2956,232 +2958,232 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -3197,23 +3199,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A558DB81-6236-3E41-B78D-FEA97328CC81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -3224,231 +3226,231 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -3464,23 +3466,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93714C45-7512-F245-80C8-5278CC72B6F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -3491,232 +3493,232 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -3732,23 +3734,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D16033-8E02-4B4E-A6E4-0A6EF7C2DFE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView zoomScale="239" zoomScaleNormal="239" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -3759,231 +3761,231 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -3999,23 +4001,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D7F2ED-8D1A-9F43-89F9-685E5F845AEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -4026,231 +4028,231 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -4266,23 +4268,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251EE058-BA11-384F-A2A2-A655CB3A6880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -4293,232 +4295,232 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -4534,23 +4536,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7863A9E-9D95-9844-AFE8-200AE447A1FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -4561,231 +4563,231 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -4801,23 +4803,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE698B-DA6F-7444-BAC5-DE4D1BE15EA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -4828,231 +4830,231 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -5068,23 +5070,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC0791E-79A3-E24D-9A87-5B5EA0265CAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
     <col min="5" max="5" width="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
@@ -5095,232 +5097,232 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
